--- a/data/raw/Data Katarina 2018.xlsx
+++ b/data/raw/Data Katarina 2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikae\Documents\Aarhus Internship\model\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CFB3CE-532C-4778-9ACB-964422E2A04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEC80D6-45FF-44D6-8B33-89AED466D7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="10428" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="252" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -133,13 +133,13 @@
     <t>Malta</t>
   </si>
   <si>
-    <t>Growing Stock</t>
-  </si>
-  <si>
     <t>Gross Increment</t>
   </si>
   <si>
     <t>Fellings</t>
+  </si>
+  <si>
+    <t>Volume</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,13 +528,13 @@
         <v>33</v>
       </c>
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/raw/Data Katarina 2018.xlsx
+++ b/data/raw/Data Katarina 2018.xlsx
@@ -8,18 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikae\Documents\Aarhus Internship\model\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEC80D6-45FF-44D6-8B33-89AED466D7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34390EF-86CC-42AB-BB8F-7014C79012AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="252" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,9 +72,6 @@
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Czech</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -140,6 +148,9 @@
   </si>
   <si>
     <t>Volume</t>
+  </si>
+  <si>
+    <t>Czechia</t>
   </si>
 </sst>
 </file>
@@ -515,7 +526,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,16 +536,16 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -607,7 +618,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>2657</v>
@@ -624,7 +635,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>635</v>
@@ -641,7 +652,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>28214</v>
@@ -658,7 +669,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>23116</v>
@@ -675,7 +686,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>17572</v>
@@ -692,7 +703,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>6539</v>
@@ -709,7 +720,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>6539</v>
@@ -726,7 +737,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>2039</v>
@@ -743,7 +754,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>788</v>
@@ -760,7 +771,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>10916</v>
@@ -777,7 +788,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>3467</v>
@@ -794,7 +805,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>2249</v>
@@ -811,7 +822,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>88</v>
@@ -828,7 +839,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -845,7 +856,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>365</v>
@@ -862,7 +873,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>9319</v>
@@ -879,7 +890,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>3611</v>
@@ -896,7 +907,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>6733</v>
@@ -913,7 +924,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>1938</v>
@@ -930,7 +941,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>1274</v>
@@ -947,7 +958,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>28214</v>
@@ -964,7 +975,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>30625</v>
@@ -981,7 +992,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>2901</v>
@@ -997,6 +1008,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E28">
+    <sortCondition ref="A12:A28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/raw/Data Katarina 2018.xlsx
+++ b/data/raw/Data Katarina 2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikae\Documents\Aarhus Internship\model\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34390EF-86CC-42AB-BB8F-7014C79012AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAC5628-0CFF-46C0-84C7-7034CF960121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -135,15 +135,9 @@
     <t>UK</t>
   </si>
   <si>
-    <t>Total Forest Area</t>
-  </si>
-  <si>
     <t>Malta</t>
   </si>
   <si>
-    <t>Gross Increment</t>
-  </si>
-  <si>
     <t>Fellings</t>
   </si>
   <si>
@@ -151,6 +145,12 @@
   </si>
   <si>
     <t>Czechia</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Gross</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,16 +536,16 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -618,7 +618,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>2657</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>0</v>
